--- a/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/accuracy_grouped_means.xlsx
+++ b/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/accuracy_grouped_means.xlsx
@@ -463,13 +463,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8412698412698415</v>
+        <v>0.8393650793650795</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8380952380952383</v>
+        <v>0.8380952380952381</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8190476190476191</v>
+        <v>0.819047619047619</v>
       </c>
     </row>
   </sheetData>
